--- a/target/classes/testData/LoginInfo.xlsx
+++ b/target/classes/testData/LoginInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\annar\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\annar\SeleniumFeb22\EXLProject\src\main\java\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D5C869-CB5C-4985-91FE-6B82579F9366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C40D41C-0C75-4111-BEBD-1955CD7D19DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{659A02DB-9A22-48B0-8F82-4D39CD6493B6}"/>
+    <workbookView xWindow="1848" yWindow="1848" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{659A02DB-9A22-48B0-8F82-4D39CD6493B6}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginInfo" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Username</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>TX</t>
+  </si>
+  <si>
+    <t>a75062</t>
   </si>
 </sst>
 </file>
@@ -500,7 +503,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -567,8 +570,8 @@
       <c r="H2" t="s">
         <v>20</v>
       </c>
-      <c r="I2">
-        <v>75062</v>
+      <c r="I2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
